--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice_Code\Practice_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888FD071-3BB3-4F39-8F8A-2A0E6ECB4B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775C5190-8CFA-4492-9770-08A0CECB2490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="470">
   <si>
     <t>Topic:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>logic build but code not run have to try it again.</t>
+  </si>
+  <si>
+    <t>the simplest way to solve the problem is to use the Has table but right now I am not learn that so I leave that right now.</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:E485"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1911,44 +1914,44 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="C1" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="21">
+    <row r="3" spans="1:5" ht="21">
       <c r="C3" s="11" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="B4" s="12"/>
       <c r="C4" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21">
+    <row r="5" spans="1:5" ht="21">
       <c r="B5" s="13"/>
       <c r="C5" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:5" ht="21">
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21">
+    <row r="7" spans="1:5" ht="21">
       <c r="B7" s="15"/>
       <c r="C7" s="11" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21">
+    <row r="8" spans="1:5" ht="21">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1959,12 +1962,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1976,7 +1979,7 @@
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" ht="21">
+    <row r="11" spans="1:5" ht="21">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1988,7 +1991,7 @@
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:4" ht="21">
+    <row r="12" spans="1:5" ht="21">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2000,7 +2003,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4" ht="21">
+    <row r="13" spans="1:5" ht="21">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2012,7 +2015,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4" ht="21">
+    <row r="14" spans="1:5" ht="21">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2024,7 +2027,7 @@
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2035,8 +2038,11 @@
         <v>10</v>
       </c>
       <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="21">
+      <c r="E15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2046,9 +2052,7 @@
       <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="21">
       <c r="A17">
